--- a/src/Magicodes.ExporterAndImporter.Tests/Models/产品导入模板.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/Models/产品导入模板.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73025D8-5489-41D2-A252-A4BA07939EE6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B0DD26-EA3B-495A-BAF8-0F47D71DE4D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>产品代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -63,6 +63,45 @@
   </si>
   <si>
     <t>20x30x50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>第二</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>20x30x51</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 左侧空格测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">右侧空格测试  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">不去除空格测试  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  不去除空格测试  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -131,10 +170,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -417,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -428,7 +470,7 @@
     <col min="1" max="10" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -459,8 +501,14 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1212</v>
       </c>
@@ -491,8 +539,14 @@
       <c r="J2">
         <v>20</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12312312</v>
       </c>
@@ -522,10 +576,100 @@
       </c>
       <c r="J3">
         <v>50</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>123123</v>
+      </c>
+      <c r="D4">
+        <v>12312412</v>
+      </c>
+      <c r="E4">
+        <v>12312314</v>
+      </c>
+      <c r="F4">
+        <v>123124</v>
+      </c>
+      <c r="G4">
+        <v>1231</v>
+      </c>
+      <c r="H4">
+        <v>123513</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>51</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>123123</v>
+      </c>
+      <c r="D5">
+        <v>12312412</v>
+      </c>
+      <c r="E5">
+        <v>12312314</v>
+      </c>
+      <c r="F5">
+        <v>123124</v>
+      </c>
+      <c r="G5">
+        <v>1231</v>
+      </c>
+      <c r="H5">
+        <v>123513</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>51</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" sqref="L1:L5" xr:uid="{90061FCE-F949-4071-A206-8FCABBFDE82B}">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="K1:K5" xr:uid="{D223E661-8643-415F-96E7-01981C896EC2}">
+      <formula1>"第一,第二"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/Magicodes.ExporterAndImporter.Tests/Models/产品导入模板.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/Models/产品导入模板.xlsx
@@ -3,24 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B0DD26-EA3B-495A-BAF8-0F47D71DE4D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B236CC87-767E-4BE8-897A-ADB306875E15}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>产品代码</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -102,6 +107,36 @@
   </si>
   <si>
     <t xml:space="preserve">  不去除空格测试  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20x30x52</t>
+  </si>
+  <si>
+    <t>20x30x53</t>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>430626200009129046</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 3123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1231 23</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +176,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -170,7 +212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -178,6 +220,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -459,18 +504,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="10" width="15.625" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.75" customWidth="1"/>
+    <col min="15" max="15" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -507,8 +555,17 @@
       <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1212</v>
       </c>
@@ -516,7 +573,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>123123</v>
       </c>
       <c r="D2">
         <v>1231</v>
@@ -545,8 +602,19 @@
       <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="M2" s="3">
+        <f ca="1">TODAY()</f>
+        <v>43719</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="4" t="str">
+        <f>IF(MOD(MID(N2,17,1),2)=1,"男","女")</f>
+        <v>女</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12312312</v>
       </c>
@@ -583,8 +651,9 @@
       <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -621,8 +690,9 @@
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -659,14 +729,94 @@
       <c r="L5" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>12312412</v>
+      </c>
+      <c r="E6">
+        <v>12312314</v>
+      </c>
+      <c r="F6">
+        <v>123124</v>
+      </c>
+      <c r="G6">
+        <v>1231</v>
+      </c>
+      <c r="H6">
+        <v>123513</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6">
+        <v>52</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>12312412</v>
+      </c>
+      <c r="E7">
+        <v>12312314</v>
+      </c>
+      <c r="F7">
+        <v>123124</v>
+      </c>
+      <c r="G7">
+        <v>1231</v>
+      </c>
+      <c r="H7">
+        <v>123513</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7">
+        <f>SUM(J2:J6)</f>
+        <v>224</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" sqref="L1:L5" xr:uid="{90061FCE-F949-4071-A206-8FCABBFDE82B}">
+    <dataValidation type="list" sqref="L1:L7" xr:uid="{90061FCE-F949-4071-A206-8FCABBFDE82B}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="K1:K5" xr:uid="{D223E661-8643-415F-96E7-01981C896EC2}">
+    <dataValidation type="list" sqref="K1:K7" xr:uid="{D223E661-8643-415F-96E7-01981C896EC2}">
       <formula1>"第一,第二"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/Magicodes.ExporterAndImporter.Tests/Models/产品导入模板.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/Models/产品导入模板.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B236CC87-767E-4BE8-897A-ADB306875E15}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8C4628-5A9F-4B73-A29B-22A0A33E1323}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M2" sqref="M2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="M2" s="3">
         <f ca="1">TODAY()</f>
-        <v>43719</v>
+        <v>43720</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>27</v>
@@ -651,7 +651,10 @@
       <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3">
+        <f ca="1">TODAY()</f>
+        <v>43720</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
